--- a/im/media/template/template_material.xlsx
+++ b/im/media/template/template_material.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Material Type (4)</t>
   </si>
   <si>
+    <t>Material Group (20)</t>
+  </si>
+  <si>
     <t>Material Number (40)</t>
   </si>
   <si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">FIN = Finished Goods, RAW = Raw Material </t>
+  </si>
+  <si>
+    <t>Material Group</t>
+  </si>
+  <si>
+    <t>RAW = Raw Material, E11 = ASMP01, E12 = ASIPP01, E13 = ASVP01, E15 = ASANP01</t>
   </si>
   <si>
     <t>Material Number</t>
@@ -69,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -113,8 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,16 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +184,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +200,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -215,13 +231,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -229,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +259,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,31 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,139 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +464,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,30 +534,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -551,6 +551,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -561,18 +570,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,127 +591,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,24 +1047,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="61.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="75.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,51 +1080,62 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="8:9">
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1"/>
+    <row r="2" spans="9:10">
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="8:9">
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row r="3" spans="9:10">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="8:9">
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    <row r="4" spans="9:10">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="8:9">
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
+    <row r="5" spans="9:10">
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="8:9">
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
+    <row r="6" spans="9:10">
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="8:9">
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="9:10">
+      <c r="I7" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10">
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/im/media/template/template_material.xlsx
+++ b/im/media/template/template_material.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="150">
   <si>
     <t>Material Type (4)</t>
   </si>
@@ -34,19 +34,67 @@
     <t>Unit of Measure (5)</t>
   </si>
   <si>
+    <t>Cycle Time</t>
+  </si>
+  <si>
+    <t>Default Location</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>881201-11900</t>
+  </si>
+  <si>
+    <t>BOARD SUB-ASSY,ECU,WATER PUMP (EF160 EFUSE)</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
     <t>Keterangan</t>
   </si>
   <si>
+    <t>881202-10670</t>
+  </si>
+  <si>
+    <t>BOARD SUB-ASSY,ECU,WATER PUMP,N0.2 (EF160 COAT)</t>
+  </si>
+  <si>
     <t>Material Type</t>
   </si>
   <si>
     <t xml:space="preserve">FIN = Finished Goods, RAW = Raw Material </t>
   </si>
   <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>881202-10660</t>
+  </si>
+  <si>
+    <t>BOARD SUB-ASSY,ECU,WATER PUMP,N0.1 (EF160)</t>
+  </si>
+  <si>
     <t>Material Group</t>
   </si>
   <si>
-    <t>RAW = Raw Material, E11 = ASMP01, E12 = ASIPP01, E13 = ASVP01, E15 = ASANP01</t>
+    <t>RAW = Raw Material, E11 = ASMP01, E12 = ASIP01, E13 = ASVP01, E15 = ASAN01</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>881211-11320</t>
+  </si>
+  <si>
+    <t>BOARD,ECU,WATER PUMP</t>
+  </si>
+  <si>
+    <t>MSTR</t>
   </si>
   <si>
     <t>Material Number</t>
@@ -55,22 +103,367 @@
     <t>diisi nomor/kode material  Max 40 digit</t>
   </si>
   <si>
+    <t>953027-71302</t>
+  </si>
+  <si>
+    <t>CAPACITOR,CHIP</t>
+  </si>
+  <si>
+    <t>ASMP</t>
+  </si>
+  <si>
     <t>External Material Number</t>
   </si>
   <si>
     <t>diisi nomor/kode material dari vendor jika ada  Max 40 digit</t>
   </si>
   <si>
+    <t>953010-43516</t>
+  </si>
+  <si>
     <t>Material Description</t>
   </si>
   <si>
     <t>diisi deskripsi dari material  Max 255 digit</t>
   </si>
   <si>
+    <t>953047-33504</t>
+  </si>
+  <si>
     <t>Unit of Measure</t>
   </si>
   <si>
     <t>diisi satuan pengukuran yang dipakai misalnya : KG, PCS  Max 5 digit</t>
+  </si>
+  <si>
+    <t>953033-33506</t>
+  </si>
+  <si>
+    <t>953022-23515</t>
+  </si>
+  <si>
+    <t>953047-03506</t>
+  </si>
+  <si>
+    <t>955111-00082</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>955122-00036</t>
+  </si>
+  <si>
+    <t>TRANSISTOR,NPN</t>
+  </si>
+  <si>
+    <t>955124-00089</t>
+  </si>
+  <si>
+    <t>TRANSISTOR,FET</t>
+  </si>
+  <si>
+    <t>955124-00110</t>
+  </si>
+  <si>
+    <t>955142-00088</t>
+  </si>
+  <si>
+    <t>IC,CMOS</t>
+  </si>
+  <si>
+    <t>955916-00126</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>955133-00008</t>
+  </si>
+  <si>
+    <t>THERMISTOR</t>
+  </si>
+  <si>
+    <t>951047-35101</t>
+  </si>
+  <si>
+    <t>RESISTOR,CHIP</t>
+  </si>
+  <si>
+    <t>951033-33203</t>
+  </si>
+  <si>
+    <t>951027-32201</t>
+  </si>
+  <si>
+    <t>951022-32101</t>
+  </si>
+  <si>
+    <t>951010-33101</t>
+  </si>
+  <si>
+    <t>951047-22101</t>
+  </si>
+  <si>
+    <t>951036-25501</t>
+  </si>
+  <si>
+    <t>951033-21201</t>
+  </si>
+  <si>
+    <t>951015-23202</t>
+  </si>
+  <si>
+    <t>951068-13202</t>
+  </si>
+  <si>
+    <t>951010-15502</t>
+  </si>
+  <si>
+    <t>951068-03204</t>
+  </si>
+  <si>
+    <t>951047-02502</t>
+  </si>
+  <si>
+    <t>951010-95506</t>
+  </si>
+  <si>
+    <t>955913-00100</t>
+  </si>
+  <si>
+    <t>RESISTOR</t>
+  </si>
+  <si>
+    <t>955112-00122</t>
+  </si>
+  <si>
+    <t>DIODE,ZENER</t>
+  </si>
+  <si>
+    <t>955112-00139</t>
+  </si>
+  <si>
+    <t>943386-11002</t>
+  </si>
+  <si>
+    <t>COAT,DAMPPROOF</t>
+  </si>
+  <si>
+    <t>881201-11760</t>
+  </si>
+  <si>
+    <t>BOARD SUB-ASSY,ECU,OIL PUMP (T431)</t>
+  </si>
+  <si>
+    <t>881211-11360</t>
+  </si>
+  <si>
+    <t>BOARD,ECU,OIL PUMP</t>
+  </si>
+  <si>
+    <t>955111-00084</t>
+  </si>
+  <si>
+    <t>955112-00142</t>
+  </si>
+  <si>
+    <t>955124-00117</t>
+  </si>
+  <si>
+    <t>951015-15401</t>
+  </si>
+  <si>
+    <t>951027-32102</t>
+  </si>
+  <si>
+    <t>951033-25505</t>
+  </si>
+  <si>
+    <t>951033-33101</t>
+  </si>
+  <si>
+    <t>951047-22102</t>
+  </si>
+  <si>
+    <t>953022-61402</t>
+  </si>
+  <si>
+    <t>955916-00140</t>
+  </si>
+  <si>
+    <t>951010-13202</t>
+  </si>
+  <si>
+    <t>951033-13101</t>
+  </si>
+  <si>
+    <t>961047-15205</t>
+  </si>
+  <si>
+    <t>955913-00097</t>
+  </si>
+  <si>
+    <t>953010-13506</t>
+  </si>
+  <si>
+    <t>953010-43508</t>
+  </si>
+  <si>
+    <t>881202-10820</t>
+  </si>
+  <si>
+    <t>BOARD SUB-ASSY,ECU,WATER PUMP (GA35)</t>
+  </si>
+  <si>
+    <t>881211-11140</t>
+  </si>
+  <si>
+    <t>955124-00090</t>
+  </si>
+  <si>
+    <t>955124-00091</t>
+  </si>
+  <si>
+    <t>951015-25101</t>
+  </si>
+  <si>
+    <t>951022-32102</t>
+  </si>
+  <si>
+    <t>953015-71301</t>
+  </si>
+  <si>
+    <t>951068-05101</t>
+  </si>
+  <si>
+    <t>955913-00104</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>484120-11180</t>
+  </si>
+  <si>
+    <t>ANTENNA ASSY, ELECTRICAL KEY (SRJ1)</t>
+  </si>
+  <si>
+    <t>484120-11190</t>
+  </si>
+  <si>
+    <t>ANTENNA ASSY, ELECTRICAL KEY (SRJ2)</t>
+  </si>
+  <si>
+    <t>484133-11370</t>
+  </si>
+  <si>
+    <t>TERMINAL, ELECTRICAL KEY</t>
+  </si>
+  <si>
+    <t>ASAN</t>
+  </si>
+  <si>
+    <t>484132-10170</t>
+  </si>
+  <si>
+    <t>BOBBIN, ELECTRICAL KEY</t>
+  </si>
+  <si>
+    <t>484134-10050</t>
+  </si>
+  <si>
+    <t>FERRITE, ELECTRICAL KEY, ANTENNA</t>
+  </si>
+  <si>
+    <t>484162-10050</t>
+  </si>
+  <si>
+    <t>HARNESS, ELECTRICAL KEY</t>
+  </si>
+  <si>
+    <t>484162-10010</t>
+  </si>
+  <si>
+    <t>954033-33701</t>
+  </si>
+  <si>
+    <t>CAPACITOR, LEAD</t>
+  </si>
+  <si>
+    <t>484133-10380</t>
+  </si>
+  <si>
+    <t>TERMINAL, ELECTRICAL KEY, SWITCH</t>
+  </si>
+  <si>
+    <t>484152-10010</t>
+  </si>
+  <si>
+    <t>SWITCH, ELECTRICAL KEY</t>
+  </si>
+  <si>
+    <t>484162-10020</t>
+  </si>
+  <si>
+    <t>HARNESS, ELECTRICAL KEY, NO.1</t>
+  </si>
+  <si>
+    <t>484162-10030</t>
+  </si>
+  <si>
+    <t>HARNESS, ELECTRICAL KEY, NO.2</t>
+  </si>
+  <si>
+    <t>484121-10630</t>
+  </si>
+  <si>
+    <t>CASE, ELECTRICAL KEY, SW</t>
+  </si>
+  <si>
+    <t>484151-10050</t>
+  </si>
+  <si>
+    <t>CAP, ELECTRICAL KEY, SW</t>
+  </si>
+  <si>
+    <t>484161-11190</t>
+  </si>
+  <si>
+    <t>PROTECTOR, ELECTRICAL KEY, SWITCH</t>
+  </si>
+  <si>
+    <t>484133-10080</t>
+  </si>
+  <si>
+    <t>TERMINAL, ELECTRICAL KEY, ANTENNA, 0.64</t>
+  </si>
+  <si>
+    <t>484161-10160</t>
+  </si>
+  <si>
+    <t>PROTECTOR, ELECTRICAL KEY, ANTENNA, 0.64</t>
+  </si>
+  <si>
+    <t>484161-10400</t>
+  </si>
+  <si>
+    <t>484161-10500</t>
+  </si>
+  <si>
+    <t>PROTECTOR, ELECTRICAL KEY, ANTENNA</t>
+  </si>
+  <si>
+    <t>484161-10800</t>
+  </si>
+  <si>
+    <t>484161-11210</t>
+  </si>
+  <si>
+    <t>955942-00043</t>
+  </si>
+  <si>
+    <t>CONNECTOR</t>
   </si>
 </sst>
 </file>
@@ -78,12 +471,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,18 +493,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,16 +525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,9 +541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +568,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,23 +602,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +631,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +661,19 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="lightGray">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,31 +685,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +715,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,55 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,36 +847,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -469,27 +877,38 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,228 +976,264 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_Detail Sheet _DETAIL SHEET WP-OP Rev2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Note" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="Normal_Detail Sheet _Detail Sheet Luggae Opener 810A" xfId="46"/>
+    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,95 +1502,2489 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1111111111111" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="75.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1111111111111" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="75.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="9:10">
-      <c r="I2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="9:10">
-      <c r="I3" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="9:10">
-      <c r="I4" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="9:10">
-      <c r="I5" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="9:10">
-      <c r="I6" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>48</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="9:10">
-      <c r="I7" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>48</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="9:10">
-      <c r="I8" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
